--- a/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det2_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det2_det3  - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.29280551904881</v>
+        <v>19.12075701903682</v>
       </c>
       <c r="D2" t="n">
         <v>0.006944391349456487</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02111450030030732</v>
+        <v>0.01982943797740053</v>
       </c>
       <c r="F2" t="n">
-        <v>12.76615280009503</v>
+        <v>10.34362016733451</v>
       </c>
       <c r="G2" t="n">
-        <v>12.50094421473542</v>
+        <v>9.90645192253899</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03354644765773</v>
+        <v>10.7966804998958</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003138440044148607</v>
+        <v>0.003147955924683531</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002747235242486199</v>
+        <v>0.002757539016402122</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003632068366270744</v>
+        <v>0.003631286706931039</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01199775748847672</v>
+        <v>0.01105691775784921</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01162736807167165</v>
+        <v>0.01073834377938824</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01242390012110029</v>
+        <v>0.01139049755384476</v>
       </c>
     </row>
     <row r="3">
@@ -557,40 +557,86 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.05063116607513096</v>
+        <v>0.04981522627320694</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0489062734933936</v>
+        <v>0.04815098319456564</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05076829414557697</v>
+        <v>0.0499839736740351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03620129330674136</v>
+        <v>0.1137245776403948</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0260028440774671</v>
+        <v>0.03237751211294077</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05241113325431288</v>
+        <v>0.2124944064076332</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03073868735879705</v>
+        <v>0.1051142188779256</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02503688834447682</v>
+        <v>0.03076849881608078</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03861770317632273</v>
+        <v>0.1954132764324292</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03071849615469177</v>
+        <v>0.1201171135361337</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02608252160985317</v>
+        <v>0.03315277237719329</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03662555244842088</v>
+        <v>0.2256327657098036</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19.17057224531003</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05509537454402212</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.06981341165143562</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.4573447449749</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.938829434651929</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.00917490630343</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1082621748026091</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0335260378324829</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1990445631393603</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1311740312939829</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.04389111615658152</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2370232632636484</v>
       </c>
     </row>
   </sheetData>
